--- a/docs/odh/shr-core-DomainResource-model.xlsx
+++ b/docs/odh/shr-core-DomainResource-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="58">
   <si>
     <t>Path</t>
   </si>
@@ -134,7 +134,8 @@
     <t>*</t>
   </si>
   <si>
-    <t>Parent class for any item in clinical or administrative health-related system. A DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.</t>
+    <t>Parent class for any item in clinical or administrative health-related system. A DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.
+Note to FHIR implementers: SHR includes Status and Identifier fields on DomainResource because these two attributes occur in almost every FHIR resource. The most significant exception are 3 or 4 resources that use an 'active' flag instead of coded status value. There is no apparent pattern to this inconsistency. FHIR resources that use a coded status have active and inactive as status values. In the spirit of providing a consistent object-oriented logical model for FHIR, SHR uses status across all domain resources.</t>
   </si>
   <si>
     <t>shr-core-DomainResource-model.metadata</t>
@@ -143,7 +144,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +161,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-DomainResource-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +174,7 @@
     <t>shr-core-DomainResource-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -193,7 +190,7 @@
     <t>shr-core-DomainResource-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -346,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -380,7 +377,7 @@
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
@@ -758,7 +755,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -790,7 +787,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -813,13 +810,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -870,7 +867,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -887,7 +884,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -910,13 +907,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -967,7 +964,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -984,7 +981,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1010,10 +1007,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1064,7 +1061,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1104,13 +1101,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1161,7 +1158,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
